--- a/project/SystemDev/User stories.xlsx
+++ b/project/SystemDev/User stories.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>As a/an</t>
   </si>
@@ -30,21 +30,6 @@
     <t>so that…</t>
   </si>
   <si>
-    <t>Since our target audience is people all around the world that like to spend their time listening to music, sharing ideas and developing a network, in whatever their interests are, specifically 15-35 year olds. We have identified several personas that might be encountered in that age limit and might be interested in consuming our service. Revolutionist, Friendly, Troll, Hacker DJ, Gamer.</t>
-  </si>
-  <si>
-    <t>Hacker</t>
-  </si>
-  <si>
-    <t>be able to infect people's computers</t>
-  </si>
-  <si>
-    <t>I can steal their precious information</t>
-  </si>
-  <si>
-    <t>be able to tap into someones connection, without being detected</t>
-  </si>
-  <si>
     <t>DJ</t>
   </si>
   <si>
@@ -54,21 +39,6 @@
     <t>I can share them with my friends and easily access them</t>
   </si>
   <si>
-    <t>Troll</t>
-  </si>
-  <si>
-    <t>Revolutionist</t>
-  </si>
-  <si>
-    <t>be able to write mean comments</t>
-  </si>
-  <si>
-    <t>I can enjoy other peropl's suffering</t>
-  </si>
-  <si>
-    <t>Friendly</t>
-  </si>
-  <si>
     <t>be able to make groups of people that I enjoy spending my time with</t>
   </si>
   <si>
@@ -148,6 +118,13 @@
   </si>
   <si>
     <t>we wont talk over eachother, making a mess in the chatroom</t>
+  </si>
+  <si>
+    <t>Taboo
+user</t>
+  </si>
+  <si>
+    <t>Friendly User</t>
   </si>
 </sst>
 </file>
@@ -183,10 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,8 +186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2262A13-2E19-477D-A129-7F953C9E80C3}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{DE62D702-6F59-4723-ACBE-8807CE767B1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2262A13-2E19-477D-A129-7F953C9E80C3}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{DE62D702-6F59-4723-ACBE-8807CE767B1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{848EEC00-015C-4651-8BA1-853C5FD841F3}" name="As a/an"/>
     <tableColumn id="2" xr3:uid="{1F9285ED-1EC4-4EC8-B2BA-C57F5FB84804}" name="I want to…"/>
@@ -480,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,116 +486,126 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -623,202 +613,148 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:J22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/project/SystemDev/User stories.xlsx
+++ b/project/SystemDev/User stories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -120,11 +120,11 @@
     <t>we wont talk over eachother, making a mess in the chatroom</t>
   </si>
   <si>
-    <t>Taboo
+    <t>Common User</t>
+  </si>
+  <si>
+    <t>Philistine
 user</t>
-  </si>
-  <si>
-    <t>Friendly User</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,12 +463,12 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -503,7 +503,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
